--- a/HT/NT-Sverige/ö20/ö20.xlsx
+++ b/HT/NT-Sverige/ö20/ö20.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="5700" windowHeight="6648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="192" yWindow="108" windowWidth="5700" windowHeight="6648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker viktningar LL" sheetId="1" r:id="rId1"/>
-    <sheet name="Tracker viktningar U20" sheetId="4" r:id="rId2"/>
-    <sheet name="Tracker krav LL" sheetId="5" r:id="rId3"/>
+    <sheet name="Tracker krav LL" sheetId="5" r:id="rId2"/>
+    <sheet name="Tracker viktningar U20" sheetId="4" r:id="rId3"/>
     <sheet name="Tracker krav U20" sheetId="2" r:id="rId4"/>
     <sheet name="Ranking" sheetId="6" r:id="rId5"/>
     <sheet name="Kalkylator" sheetId="3" r:id="rId6"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="109">
   <si>
     <t>[table]</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>x-YTfa</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Tracker</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +431,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,11 +447,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,6 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -755,7 +761,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1431,10 +1437,2421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>490</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>560</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>680</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>800</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1275</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1350</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1450</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>99999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2">
+        <v>595</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
+        <v>660</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2">
+        <v>820</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
+        <v>900</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2">
+        <v>970</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1125</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1175</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="2">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1225</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="2">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1275</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1325</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="2">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>99999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1">
+      <c r="A35" s="2">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2">
+        <v>570</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="A36" s="2">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2">
+        <v>640</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="A37" s="2">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2">
+        <v>740</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2">
+        <v>840</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1">
+      <c r="A39" s="2">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2">
+        <v>980</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1">
+      <c r="A41" s="2">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1125</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1">
+      <c r="A43" s="2">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1275</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="2">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1350</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1">
+      <c r="A45" s="2">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1">
+      <c r="A46" s="2">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>99999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" t="str">
+        <f>CONCATENATE("[b]",B49,"[/b]")</f>
+        <v>[b]Innermittfältare[/b]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="str">
+        <f>CONCATENATE("[th]",D49,"[/th]")</f>
+        <v>[th][/th]</v>
+      </c>
+      <c r="J49" t="str">
+        <f>CONCATENATE("[th]",E49,"[/th]")</f>
+        <v>[th]2[/th]</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>550</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="str">
+        <f>CONCATENATE("[td]",D50,"[/td]")</f>
+        <v>[td]17 (50)[/td]</v>
+      </c>
+      <c r="J50" t="str">
+        <f>CONCATENATE("[td]",E50,"[/td]")</f>
+        <v>[td]550[/td]</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>620</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ref="I51:J60" si="0">CONCATENATE("[td]",D51,"[/td]")</f>
+        <v>[td]17 (111)[/td]</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]620[/td]</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>700</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]18 (111)[/td]</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]700[/td]</v>
+      </c>
+      <c r="K52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>800</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]19 (111)[/td]</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]800[/td]</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>900</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]20 (111)[/td]</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]900[/td]</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>1025</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]22 (111)[/td]</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1025[/td]</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>1100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]24 (111)[/td]</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1100[/td]</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57">
+        <v>1175</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]26 (111)[/td]</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1175[/td]</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1250</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]28 (111)[/td]</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1250[/td]</v>
+      </c>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>1325</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]30 (111)[/td]</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1325[/td]</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>1400</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]99 (111)[/td]</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>[td]1400[/td]</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>99999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>455</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66">
+        <v>520</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <v>650</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <v>780</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>900</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>1100</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72">
+        <v>1175</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>1250</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>1325</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>1400</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76">
+        <v>99999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81">
+        <v>700</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82">
+        <v>825</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>950</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <v>1050</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85">
+        <v>1125</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86">
+        <v>1200</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>1275</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>1350</v>
+      </c>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89">
+        <v>1400</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90">
+        <v>1450</v>
+      </c>
+      <c r="F90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>60</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91">
+        <v>99999</v>
+      </c>
+      <c r="F91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95">
+        <v>570</v>
+      </c>
+      <c r="F95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96">
+        <v>660</v>
+      </c>
+      <c r="F96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97">
+        <v>750</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98">
+        <v>820</v>
+      </c>
+      <c r="F98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99">
+        <v>900</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100">
+        <v>950</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>70</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101">
+        <v>1050</v>
+      </c>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <v>1120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>70</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103">
+        <v>1180</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>70</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>1225</v>
+      </c>
+      <c r="F104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>70</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105">
+        <v>1250</v>
+      </c>
+      <c r="F105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>70</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106">
+        <v>99999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>90</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>90</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>90</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>90</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110">
+        <v>600</v>
+      </c>
+      <c r="F110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>90</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111">
+        <v>700</v>
+      </c>
+      <c r="F111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112">
+        <v>850</v>
+      </c>
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>90</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113">
+        <v>920</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114">
+        <v>1000</v>
+      </c>
+      <c r="F114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>90</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115">
+        <v>1100</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>90</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116">
+        <v>1200</v>
+      </c>
+      <c r="F116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>1275</v>
+      </c>
+      <c r="F117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>90</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118">
+        <v>1350</v>
+      </c>
+      <c r="F118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>90</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119">
+        <v>1400</v>
+      </c>
+      <c r="F119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>90</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>99999</v>
+      </c>
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2151,2424 +4568,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="2">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>490</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
-      <c r="A6" s="2">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>560</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2">
-        <v>680</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
-      <c r="A8" s="2">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
-        <v>800</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1100</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1275</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1350</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1400</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1450</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>99999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="2">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="2">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2">
-        <v>595</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2">
-        <v>660</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2">
-        <v>820</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <v>900</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2">
-        <v>970</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1050</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" s="2">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1125</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
-      <c r="A27" s="2">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1175</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="2">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1225</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
-      <c r="A29" s="2">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1275</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
-      <c r="A30" s="2">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1325</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
-      <c r="A31" s="2">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31">
-        <v>99999</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1">
-      <c r="A35" s="2">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2">
-        <v>570</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="2">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="2">
-        <v>640</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="2">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="2">
-        <v>740</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="2">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="2">
-        <v>840</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1">
-      <c r="A39" s="2">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="2">
-        <v>980</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
-      <c r="A40" s="2">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1050</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1">
-      <c r="A41" s="2">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1125</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
-      <c r="A42" s="2">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1">
-      <c r="A43" s="2">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1275</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="2">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1350</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1">
-      <c r="A45" s="2">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1400</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
-      <c r="A46" s="2">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46">
-        <v>99999</v>
-      </c>
-      <c r="F46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>40</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" t="str">
-        <f>CONCATENATE("[b]",B49,"[/b]")</f>
-        <v>[b]Innermittfältare[/b]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" t="str">
-        <f>CONCATENATE("[th]",D49,"[/th]")</f>
-        <v>[th][/th]</v>
-      </c>
-      <c r="J49" t="str">
-        <f>CONCATENATE("[th]",E49,"[/th]")</f>
-        <v>[th]2[/th]</v>
-      </c>
-      <c r="K49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50">
-        <v>550</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" t="str">
-        <f>CONCATENATE("[td]",D50,"[/td]")</f>
-        <v>[td]17 (50)[/td]</v>
-      </c>
-      <c r="J50" t="str">
-        <f>CONCATENATE("[td]",E50,"[/td]")</f>
-        <v>[td]550[/td]</v>
-      </c>
-      <c r="K50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51">
-        <v>620</v>
-      </c>
-      <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" ref="I51:J60" si="0">CONCATENATE("[td]",D51,"[/td]")</f>
-        <v>[td]17 (111)[/td]</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]620[/td]</v>
-      </c>
-      <c r="K51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>40</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52">
-        <v>700</v>
-      </c>
-      <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]18 (111)[/td]</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]700[/td]</v>
-      </c>
-      <c r="K52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>800</v>
-      </c>
-      <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]19 (111)[/td]</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]800[/td]</v>
-      </c>
-      <c r="K53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54">
-        <v>900</v>
-      </c>
-      <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]20 (111)[/td]</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]900[/td]</v>
-      </c>
-      <c r="K54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>40</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55">
-        <v>1025</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]22 (111)[/td]</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1025[/td]</v>
-      </c>
-      <c r="K55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>40</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56">
-        <v>1100</v>
-      </c>
-      <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]24 (111)[/td]</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1100[/td]</v>
-      </c>
-      <c r="K56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57">
-        <v>1175</v>
-      </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]26 (111)[/td]</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1175[/td]</v>
-      </c>
-      <c r="K57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58">
-        <v>1250</v>
-      </c>
-      <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]28 (111)[/td]</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1250[/td]</v>
-      </c>
-      <c r="K58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>40</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59">
-        <v>1325</v>
-      </c>
-      <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]30 (111)[/td]</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1325[/td]</v>
-      </c>
-      <c r="K59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60">
-        <v>1400</v>
-      </c>
-      <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]99 (111)[/td]</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>[td]1400[/td]</v>
-      </c>
-      <c r="K60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>99999</v>
-      </c>
-      <c r="F61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64">
-        <v>50</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>50</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65">
-        <v>455</v>
-      </c>
-      <c r="F65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66">
-        <v>520</v>
-      </c>
-      <c r="F66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>50</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67">
-        <v>650</v>
-      </c>
-      <c r="F67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>50</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68">
-        <v>780</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>50</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69">
-        <v>900</v>
-      </c>
-      <c r="F69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>50</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70">
-        <v>1000</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71">
-        <v>1100</v>
-      </c>
-      <c r="F71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>50</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72">
-        <v>1175</v>
-      </c>
-      <c r="F72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>50</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73">
-        <v>1250</v>
-      </c>
-      <c r="F73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>50</v>
-      </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74">
-        <v>1325</v>
-      </c>
-      <c r="F74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>50</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75">
-        <v>1400</v>
-      </c>
-      <c r="F75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>50</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76">
-        <v>99999</v>
-      </c>
-      <c r="F76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>60</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" s="2">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>60</v>
-      </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>60</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>60</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80">
-        <v>600</v>
-      </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>60</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81">
-        <v>700</v>
-      </c>
-      <c r="F81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82">
-        <v>825</v>
-      </c>
-      <c r="F82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>60</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83">
-        <v>950</v>
-      </c>
-      <c r="F83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84">
-        <v>1050</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>60</v>
-      </c>
-      <c r="B85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85">
-        <v>1125</v>
-      </c>
-      <c r="F85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>60</v>
-      </c>
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86">
-        <v>1200</v>
-      </c>
-      <c r="F86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>60</v>
-      </c>
-      <c r="B87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87">
-        <v>1275</v>
-      </c>
-      <c r="F87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88">
-        <v>1350</v>
-      </c>
-      <c r="F88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>60</v>
-      </c>
-      <c r="B89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89">
-        <v>1400</v>
-      </c>
-      <c r="F89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>60</v>
-      </c>
-      <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90">
-        <v>1450</v>
-      </c>
-      <c r="F90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>60</v>
-      </c>
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91">
-        <v>99999</v>
-      </c>
-      <c r="F91" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>70</v>
-      </c>
-      <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>70</v>
-      </c>
-      <c r="B93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>70</v>
-      </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>70</v>
-      </c>
-      <c r="B95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95">
-        <v>570</v>
-      </c>
-      <c r="F95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>70</v>
-      </c>
-      <c r="B96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96">
-        <v>660</v>
-      </c>
-      <c r="F96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>70</v>
-      </c>
-      <c r="B97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97">
-        <v>750</v>
-      </c>
-      <c r="F97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98">
-        <v>820</v>
-      </c>
-      <c r="F98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>70</v>
-      </c>
-      <c r="B99" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99">
-        <v>900</v>
-      </c>
-      <c r="F99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>70</v>
-      </c>
-      <c r="B100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100">
-        <v>950</v>
-      </c>
-      <c r="F100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>70</v>
-      </c>
-      <c r="B101" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101">
-        <v>1050</v>
-      </c>
-      <c r="F101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>70</v>
-      </c>
-      <c r="B102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102">
-        <v>1120</v>
-      </c>
-      <c r="F102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>70</v>
-      </c>
-      <c r="B103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103">
-        <v>1180</v>
-      </c>
-      <c r="F103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>70</v>
-      </c>
-      <c r="B104" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104">
-        <v>1225</v>
-      </c>
-      <c r="F104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>70</v>
-      </c>
-      <c r="B105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105">
-        <v>1250</v>
-      </c>
-      <c r="F105" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>70</v>
-      </c>
-      <c r="B106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106">
-        <v>99999</v>
-      </c>
-      <c r="F106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>90</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>90</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>90</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>90</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110">
-        <v>600</v>
-      </c>
-      <c r="F110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>90</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111">
-        <v>700</v>
-      </c>
-      <c r="F111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>90</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112">
-        <v>850</v>
-      </c>
-      <c r="F112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>90</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113">
-        <v>920</v>
-      </c>
-      <c r="F113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>90</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114">
-        <v>1000</v>
-      </c>
-      <c r="F114" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>90</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115">
-        <v>1100</v>
-      </c>
-      <c r="F115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>90</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116">
-        <v>1200</v>
-      </c>
-      <c r="F116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>90</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117">
-        <v>1275</v>
-      </c>
-      <c r="F117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>90</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118">
-        <v>1350</v>
-      </c>
-      <c r="F118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>90</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119">
-        <v>1400</v>
-      </c>
-      <c r="F119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>90</v>
-      </c>
-      <c r="B120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120">
-        <v>99999</v>
-      </c>
-      <c r="F120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7169,7 +7175,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7309,6 +7315,52 @@
       <c r="G8">
         <v>19</v>
       </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="10">
+        <v>17</v>
+      </c>
+      <c r="L8" s="10">
+        <f>K10</f>
+        <v>17.5</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" ref="M8:U8" si="0">L10</f>
+        <v>18</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
@@ -7323,50 +7375,87 @@
       <c r="G9">
         <v>38</v>
       </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" ref="K9:O9" si="1">CONCATENATE(K8,IF((K10-K8)&gt;1,CONCATENATE("-",K10-1),""))</f>
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>17,5</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P9" s="9" t="str">
+        <f>CONCATENATE(P8,IF((P10-P8)&gt;1,CONCATENATE("-",P10-1),""))</f>
+        <v>21</v>
+      </c>
+      <c r="Q9" s="9" t="str">
+        <f t="shared" ref="Q9:U9" si="2">CONCATENATE(Q8,IF((Q10-Q8)&gt;1,CONCATENATE("-",Q10-1),""))</f>
+        <v>22</v>
+      </c>
+      <c r="R9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>23-24</v>
+      </c>
+      <c r="S9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>25-26</v>
+      </c>
+      <c r="T9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>27-28</v>
+      </c>
+      <c r="U9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>29-99</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="K10" s="11">
-        <v>17</v>
-      </c>
-      <c r="L10" s="11">
-        <f>K12</f>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="10">
         <v>17.5</v>
       </c>
-      <c r="M10" s="11">
-        <f t="shared" ref="M10:U10" si="0">L12</f>
+      <c r="L10" s="10">
         <v>18</v>
       </c>
-      <c r="N10" s="11">
-        <f t="shared" si="0"/>
+      <c r="M10" s="10">
         <v>19</v>
       </c>
-      <c r="O10" s="11">
-        <f t="shared" si="0"/>
+      <c r="N10" s="10">
         <v>20</v>
       </c>
-      <c r="P10" s="11">
-        <f t="shared" si="0"/>
+      <c r="O10" s="10">
         <v>21</v>
       </c>
-      <c r="Q10" s="11">
-        <f t="shared" si="0"/>
+      <c r="P10" s="10">
         <v>22</v>
       </c>
-      <c r="R10" s="11">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="10">
         <v>23</v>
       </c>
-      <c r="S10" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="0"/>
+      <c r="R10" s="10">
+        <v>25</v>
+      </c>
+      <c r="S10" s="10">
+        <v>27</v>
+      </c>
+      <c r="T10" s="10">
         <v>29</v>
+      </c>
+      <c r="U10" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7376,49 +7465,54 @@
       <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="10" t="str">
-        <f t="shared" ref="K11:O11" si="1">CONCATENATE(K10,IF((K12-K10)&gt;1,CONCATENATE("-",K12-1),""))</f>
-        <v>17</v>
-      </c>
-      <c r="L11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>17,5</v>
-      </c>
-      <c r="M11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="O11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="P11" s="10" t="str">
-        <f>CONCATENATE(P10,IF((P12-P10)&gt;1,CONCATENATE("-",P12-1),""))</f>
-        <v>21</v>
-      </c>
-      <c r="Q11" s="10" t="str">
-        <f t="shared" ref="Q11:U11" si="2">CONCATENATE(Q10,IF((Q12-Q10)&gt;1,CONCATENATE("-",Q12-1),""))</f>
-        <v>22</v>
-      </c>
-      <c r="R11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>23-24</v>
-      </c>
-      <c r="S11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>25-26</v>
-      </c>
-      <c r="T11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>27-28</v>
-      </c>
-      <c r="U11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>29-98</v>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f>CONCATENATE(L10-1," (111)")</f>
+        <v>17 (111)</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f t="shared" ref="M11:U11" si="3">CONCATENATE(M10-1," (111)")</f>
+        <v>18 (111)</v>
+      </c>
+      <c r="N11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>19 (111)</v>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>20 (111)</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>21 (111)</v>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>22 (111)</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>24 (111)</v>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>26 (111)</v>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>28 (111)</v>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>99 (111)</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -7426,49 +7520,13 @@
         <v>72</v>
       </c>
       <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>15</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="K12" s="11">
-        <v>17.5</v>
-      </c>
-      <c r="L12" s="11">
-        <v>18</v>
-      </c>
-      <c r="M12" s="11">
-        <v>19</v>
-      </c>
-      <c r="N12" s="11">
-        <v>20</v>
-      </c>
-      <c r="O12" s="11">
-        <v>21</v>
-      </c>
-      <c r="P12" s="11">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>23</v>
-      </c>
-      <c r="R12" s="11">
-        <v>25</v>
-      </c>
-      <c r="S12" s="11">
-        <v>27</v>
-      </c>
-      <c r="T12" s="11">
-        <v>29</v>
-      </c>
-      <c r="U12" s="11">
-        <v>99</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7477,11 +7535,11 @@
       </c>
       <c r="B13">
         <f>B12*VLOOKUP($A11, $A$2:$H$9,2,FALSE)</f>
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="C13">
         <f>C12*VLOOKUP($A11, $A$2:$H$9,3,FALSE)</f>
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="D13">
         <f>D12*VLOOKUP($A11, $A$2:$H$9,4,FALSE)</f>
@@ -7501,29 +7559,29 @@
       </c>
       <c r="H13">
         <f>H12*VLOOKUP($A11, $A$2:$H$9,8,FALSE)</f>
-        <v>216</v>
+        <v>540</v>
       </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>933</v>
+        <v>1456</v>
       </c>
       <c r="P13">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q13">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R13">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S13">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T13">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="U13">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="W13">
         <v>1765</v>
@@ -7539,13 +7597,13 @@
         <v>72</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -7558,15 +7616,15 @@
       </c>
       <c r="C17">
         <f>C16*VLOOKUP($A15, $A$2:$H$9,3,FALSE)</f>
-        <v>736</v>
+        <v>782</v>
       </c>
       <c r="D17">
         <f>D16*VLOOKUP($A15, $A$2:$H$9,4,FALSE)</f>
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="E17">
         <f>E16*VLOOKUP($A15, $A$2:$H$9,5,FALSE)</f>
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <f>F16*VLOOKUP($A15, $A$2:$H$9,6,FALSE)</f>
@@ -7582,7 +7640,7 @@
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
-        <v>1366</v>
+        <v>1304</v>
       </c>
       <c r="P17">
         <v>950</v>
@@ -7597,10 +7655,10 @@
         <v>1200</v>
       </c>
       <c r="T17">
+        <v>1250</v>
+      </c>
+      <c r="U17">
         <v>1300</v>
-      </c>
-      <c r="U17">
-        <v>1450</v>
       </c>
       <c r="W17">
         <v>1458</v>
@@ -7616,16 +7674,16 @@
         <v>72</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -7638,19 +7696,19 @@
       </c>
       <c r="C21">
         <f>C20*VLOOKUP($A19, $A$2:$H$9,3,FALSE)</f>
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="D21">
         <f>D20*VLOOKUP($A19, $A$2:$H$9,4,FALSE)</f>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <f>E20*VLOOKUP($A19, $A$2:$H$9,5,FALSE)</f>
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <f>F20*VLOOKUP($A19, $A$2:$H$9,6,FALSE)</f>
-        <v>372</v>
+        <v>465</v>
       </c>
       <c r="G21">
         <f>G20*VLOOKUP($A19, $A$2:$H$9,7,FALSE)</f>
@@ -7662,7 +7720,7 @@
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>1135</v>
+        <v>1279</v>
       </c>
       <c r="P21">
         <v>950</v>
@@ -7674,92 +7732,92 @@
         <v>1100</v>
       </c>
       <c r="S21">
+        <v>1150</v>
+      </c>
+      <c r="T21">
         <v>1200</v>
       </c>
-      <c r="T21">
-        <v>1300</v>
-      </c>
       <c r="U21">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="W21">
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:23" s="12" customFormat="1">
+      <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:23" s="12" customFormat="1">
+      <c r="A24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7">
-        <v>15</v>
-      </c>
-      <c r="E24" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="7" customFormat="1">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="12">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="12" customFormat="1">
+      <c r="A25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <f>B24*VLOOKUP($A23, $A$2:$H$9,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="12">
         <f>C24*VLOOKUP($A23, $A$2:$H$9,3,FALSE)</f>
-        <v>324</v>
-      </c>
-      <c r="D25" s="7">
+        <v>81</v>
+      </c>
+      <c r="D25" s="12">
         <f>D24*VLOOKUP($A23, $A$2:$H$9,4,FALSE)</f>
-        <v>690</v>
-      </c>
-      <c r="E25" s="7">
+        <v>828</v>
+      </c>
+      <c r="E25" s="12">
         <f>E24*VLOOKUP($A23, $A$2:$H$9,5,FALSE)</f>
-        <v>243</v>
-      </c>
-      <c r="F25" s="7">
+        <v>351</v>
+      </c>
+      <c r="F25" s="12">
         <f>F24*VLOOKUP($A23, $A$2:$H$9,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="12">
         <f>G24*VLOOKUP($A23, $A$2:$H$9,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="12">
         <f>H24*VLOOKUP($A23, $A$2:$H$9,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="12">
         <f>SUM(B25:H25)</f>
-        <v>1257</v>
-      </c>
-      <c r="P25" s="7">
+        <v>1260</v>
+      </c>
+      <c r="P25" s="12">
         <v>950</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="12">
         <v>1000</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="12">
         <v>1100</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="12">
+        <v>1150</v>
+      </c>
+      <c r="T25" s="12">
         <v>1200</v>
       </c>
-      <c r="T25" s="7">
-        <v>1300</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1400</v>
-      </c>
-      <c r="W25" s="7">
+      <c r="U25" s="12">
+        <v>1250</v>
+      </c>
+      <c r="W25" s="12">
         <v>1422</v>
       </c>
     </row>
@@ -7773,16 +7831,16 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -7795,19 +7853,19 @@
       </c>
       <c r="C29">
         <f>C28*VLOOKUP($A27, $A$2:$H$9,3,FALSE)</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <f>D28*VLOOKUP($A27, $A$2:$H$9,4,FALSE)</f>
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="E29">
         <f>E28*VLOOKUP($A27, $A$2:$H$9,5,FALSE)</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <f>F28*VLOOKUP($A27, $A$2:$H$9,6,FALSE)</f>
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="G29">
         <f>G28*VLOOKUP($A27, $A$2:$H$9,7,FALSE)</f>
@@ -7819,25 +7877,25 @@
       </c>
       <c r="I29">
         <f>SUM(B29:H29)</f>
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="P29">
         <v>900</v>
       </c>
       <c r="Q29">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="R29">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="S29">
         <v>1150</v>
       </c>
       <c r="T29">
+        <v>1200</v>
+      </c>
+      <c r="U29">
         <v>1250</v>
-      </c>
-      <c r="U29">
-        <v>1300</v>
       </c>
       <c r="W29">
         <v>1346</v>
@@ -7933,16 +7991,16 @@
         <v>72</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -7959,19 +8017,19 @@
       </c>
       <c r="D37">
         <f>D36*VLOOKUP($A35, $A$2:$H$9,4,FALSE)</f>
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="E37">
         <f>E36*VLOOKUP($A35, $A$2:$H$9,5,FALSE)</f>
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="F37">
         <f>F36*VLOOKUP($A35, $A$2:$H$9,6,FALSE)</f>
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="G37">
         <f>G36*VLOOKUP($A35, $A$2:$H$9,7,FALSE)</f>
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H37">
         <f>H36*VLOOKUP($A35, $A$2:$H$9,8,FALSE)</f>
@@ -7979,25 +8037,25 @@
       </c>
       <c r="I37">
         <f>SUM(B37:H37)</f>
-        <v>1262</v>
+        <v>1021</v>
       </c>
       <c r="P37">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="Q37">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="R37">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="S37">
         <v>1100</v>
       </c>
       <c r="T37">
+        <v>1150</v>
+      </c>
+      <c r="U37">
         <v>1200</v>
-      </c>
-      <c r="U37">
-        <v>1250</v>
       </c>
       <c r="W37">
         <v>1262</v>
@@ -8013,13 +8071,13 @@
         <v>72</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -8040,15 +8098,15 @@
       </c>
       <c r="E41">
         <f>E40*VLOOKUP($A39, $A$2:$H$9,5,FALSE)</f>
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="F41">
         <f>F40*VLOOKUP($A39, $A$2:$H$9,6,FALSE)</f>
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="G41">
         <f>G40*VLOOKUP($A39, $A$2:$H$9,7,FALSE)</f>
-        <v>456</v>
+        <v>646</v>
       </c>
       <c r="H41">
         <f>H40*VLOOKUP($A39, $A$2:$H$9,8,FALSE)</f>
@@ -8056,7 +8114,7 @@
       </c>
       <c r="I41">
         <f>SUM(B41:H41)</f>
-        <v>1171</v>
+        <v>1204</v>
       </c>
       <c r="P41">
         <v>950</v>
@@ -8065,16 +8123,16 @@
         <v>1000</v>
       </c>
       <c r="R41">
+        <v>1050</v>
+      </c>
+      <c r="S41">
         <v>1100</v>
       </c>
-      <c r="S41">
+      <c r="T41">
+        <v>1150</v>
+      </c>
+      <c r="U41">
         <v>1200</v>
-      </c>
-      <c r="T41">
-        <v>1300</v>
-      </c>
-      <c r="U41">
-        <v>1450</v>
       </c>
       <c r="W41">
         <v>1456</v>
@@ -8110,7 +8168,7 @@
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -8152,7 +8210,7 @@
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -8194,7 +8252,7 @@
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8236,7 +8294,7 @@
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -8278,7 +8336,7 @@
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8320,7 +8378,7 @@
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8362,7 +8420,7 @@
       <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -8404,7 +8462,7 @@
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -8444,7 +8502,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -8476,7 +8534,7 @@
       <c r="A10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -8515,7 +8573,7 @@
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8557,7 +8615,7 @@
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8599,7 +8657,7 @@
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -8641,7 +8699,7 @@
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -8683,7 +8741,7 @@
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -8725,7 +8783,7 @@
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">

--- a/HT/NT-Sverige/ö20/ö20.xlsx
+++ b/HT/NT-Sverige/ö20/ö20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="5700" windowHeight="6648"/>
+    <workbookView xWindow="192" yWindow="108" windowWidth="5700" windowHeight="6648" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker krav LL" sheetId="5" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Ranking" sheetId="6" r:id="rId7"/>
     <sheet name="Viktningar experimentering" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId9"/>
+    <sheet name="Forum gen" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="126">
   <si>
     <t>[table]</t>
   </si>
@@ -364,6 +365,42 @@
   </si>
   <si>
     <t>21 (111)</t>
+  </si>
+  <si>
+    <t>Viktning</t>
+  </si>
+  <si>
+    <t>Nivå</t>
+  </si>
+  <si>
+    <t>Rankingvärde</t>
+  </si>
+  <si>
+    <t>Försvar</t>
+  </si>
+  <si>
+    <t>Spelupplägg</t>
+  </si>
+  <si>
+    <t>Ytter</t>
+  </si>
+  <si>
+    <t>Framspel</t>
+  </si>
+  <si>
+    <t>Målgörare</t>
+  </si>
+  <si>
+    <t>Fasta sit</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan "The Wall" Lindhström (307748358) </t>
+  </si>
+  <si>
+    <t>Björn Sörensson (303006597)</t>
   </si>
 </sst>
 </file>
@@ -796,9 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="H2:K100"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -920,11 +957,11 @@
         <v>8</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I45" si="1">CONCATENATE("[td]",D5,"[/td]")</f>
+        <f t="shared" ref="I5:I11" si="1">CONCATENATE("[td]",D5,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J45" si="2">CONCATENATE("[td]",E5,"[/td]")</f>
+        <f t="shared" ref="J5:J11" si="2">CONCATENATE("[td]",E5,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K5" t="s">
@@ -1210,11 +1247,11 @@
         <v>8</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15:I46" si="4">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I15" si="4">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:J46" si="5">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J15" si="5">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K15" t="s">
@@ -1244,11 +1281,11 @@
         <v>8</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16:I79" si="6">CONCATENATE("[td]",D16,"[/td]")</f>
+        <f t="shared" ref="I16:I22" si="6">CONCATENATE("[td]",D16,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16:J79" si="7">CONCATENATE("[td]",E16,"[/td]")</f>
+        <f t="shared" ref="J16:J22" si="7">CONCATENATE("[td]",E16,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K16" t="s">
@@ -1534,11 +1571,11 @@
         <v>8</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ref="I26:I57" si="9">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I26" si="9">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:J57" si="10">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J26" si="10">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K26" t="s">
@@ -1568,11 +1605,11 @@
         <v>8</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ref="I27:I90" si="11">CONCATENATE("[td]",D27,"[/td]")</f>
+        <f t="shared" ref="I27:I33" si="11">CONCATENATE("[td]",D27,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:J90" si="12">CONCATENATE("[td]",E27,"[/td]")</f>
+        <f t="shared" ref="J27:J33" si="12">CONCATENATE("[td]",E27,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K27" t="s">
@@ -1858,11 +1895,11 @@
         <v>8</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="14">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I37" si="14">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37:J68" si="15">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J37" si="15">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K37" t="s">
@@ -1892,11 +1929,11 @@
         <v>8</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ref="I38:I100" si="16">CONCATENATE("[td]",D38,"[/td]")</f>
+        <f t="shared" ref="I38:I44" si="16">CONCATENATE("[td]",D38,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:J100" si="17">CONCATENATE("[td]",E38,"[/td]")</f>
+        <f t="shared" ref="J38:J44" si="17">CONCATENATE("[td]",E38,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K38" t="s">
@@ -2182,11 +2219,11 @@
         <v>8</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" ref="I48:I79" si="19">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I48" si="19">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" ref="J48:J79" si="20">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J48" si="20">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K48" t="s">
@@ -2216,11 +2253,11 @@
         <v>8</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" ref="I49:I100" si="21">CONCATENATE("[td]",D49,"[/td]")</f>
+        <f t="shared" ref="I49:I55" si="21">CONCATENATE("[td]",D49,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ref="J49:J100" si="22">CONCATENATE("[td]",E49,"[/td]")</f>
+        <f t="shared" ref="J49:J55" si="22">CONCATENATE("[td]",E49,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K49" t="s">
@@ -2503,11 +2540,11 @@
         <v>8</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" ref="I59:I100" si="24">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I59" si="24">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59:J100" si="25">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J59" si="25">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K59" t="s">
@@ -2537,11 +2574,11 @@
         <v>8</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" ref="I60:I100" si="26">CONCATENATE("[td]",D60,"[/td]")</f>
+        <f t="shared" ref="I60:I66" si="26">CONCATENATE("[td]",D60,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ref="J60:J100" si="27">CONCATENATE("[td]",E60,"[/td]")</f>
+        <f t="shared" ref="J60:J66" si="27">CONCATENATE("[td]",E60,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K60" t="s">
@@ -2824,11 +2861,11 @@
         <v>8</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" ref="I70:I100" si="29">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I70" si="29">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" ref="J70:J100" si="30">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J70" si="30">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K70" t="s">
@@ -2858,11 +2895,11 @@
         <v>8</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" ref="I71:I100" si="31">CONCATENATE("[td]",D71,"[/td]")</f>
+        <f t="shared" ref="I71:I77" si="31">CONCATENATE("[td]",D71,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" ref="J71:J100" si="32">CONCATENATE("[td]",E71,"[/td]")</f>
+        <f t="shared" ref="J71:J77" si="32">CONCATENATE("[td]",E71,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K71" t="s">
@@ -3145,11 +3182,11 @@
         <v>8</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" ref="I81:I100" si="34">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I81" si="34">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" ref="J81:J100" si="35">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J81" si="35">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K81" t="s">
@@ -3179,11 +3216,11 @@
         <v>8</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" ref="I82:I100" si="36">CONCATENATE("[td]",D82,"[/td]")</f>
+        <f t="shared" ref="I82:I88" si="36">CONCATENATE("[td]",D82,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" ref="J82:J100" si="37">CONCATENATE("[td]",E82,"[/td]")</f>
+        <f t="shared" ref="J82:J88" si="37">CONCATENATE("[td]",E82,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K82" t="s">
@@ -3466,11 +3503,11 @@
         <v>8</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" ref="I92:I100" si="39">CONCATENATE("[th]",$D$1,"[/th]")</f>
+        <f t="shared" ref="I92" si="39">CONCATENATE("[th]",$D$1,"[/th]")</f>
         <v>[th]Ålder[/th]</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" ref="J92:J100" si="40">CONCATENATE("[th]",$E$1,"[/th]")</f>
+        <f t="shared" ref="J92" si="40">CONCATENATE("[th]",$E$1,"[/th]")</f>
         <v>[th]Krav[/th]</v>
       </c>
       <c r="K92" t="s">
@@ -3500,11 +3537,11 @@
         <v>8</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" ref="I93:I100" si="41">CONCATENATE("[td]",D93,"[/td]")</f>
+        <f t="shared" ref="I93:I99" si="41">CONCATENATE("[td]",D93,"[/td]")</f>
         <v>[td]20 (111)[/td]</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" ref="J93:J100" si="42">CONCATENATE("[td]",E93,"[/td]")</f>
+        <f t="shared" ref="J93:J99" si="42">CONCATENATE("[td]",E93,"[/td]")</f>
         <v>[td]9999[/td]</v>
       </c>
       <c r="K93" t="s">
@@ -3729,6 +3766,696 @@
         <v>53</v>
       </c>
       <c r="H100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> CONCATENATE("[b]",B2,"[/b]")</f>
+        <v>[b]Jan "The Wall" Lindhström (307748358) [/b]</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("[th]",B4,"[/th]")</f>
+        <v>[th]Förmåga[/th]</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:M4" si="0">CONCATENATE("[th]",C4,"[/th]")</f>
+        <v>[th]Viktning[/th]</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>[th]Nivå[/th]</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>[th]Rankingvärde[/th]</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>592</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("[td]",B5,"[/td]")</f>
+        <v>[td]Målvakt[/td]</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:M12" si="1">CONCATENATE("[td]",C5,"[/td]")</f>
+        <v>[td]37[/td]</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]16[/td]</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]592[/td]</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H12" si="2">CONCATENATE("[td]",B6,"[/td]")</f>
+        <v>[td]Försvar[/td]</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]27[/td]</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]5[/td]</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]135[/td]</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Spelupplägg[/td]</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]2[/td]</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Ytter[/td]</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Framspel[/td]</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Målgörare[/td]</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Fasta sit[/td]</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]36[/td]</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]10[/td]</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]360[/td]</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>1087</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>[td]Summa[/td]</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>[td][/td]</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>[td][/td]</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>[td]1087[/td]</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="str">
+        <f xml:space="preserve"> CONCATENATE("[b]",B15,"[/b]")</f>
+        <v>[b]Björn Sörensson (303006597)[/b]</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE("[th]",B17,"[/th]")</f>
+        <v>[th]Förmåga[/th]</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ref="I17" si="3">CONCATENATE("[th]",C17,"[/th]")</f>
+        <v>[th]Viktning[/th]</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17" si="4">CONCATENATE("[th]",D17,"[/th]")</f>
+        <v>[th]Nivå[/th]</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17" si="5">CONCATENATE("[th]",E17,"[/th]")</f>
+        <v>[th]Rankingvärde[/th]</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>481</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="str">
+        <f>CONCATENATE("[td]",B18,"[/td]")</f>
+        <v>[td]Målvakt[/td]</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ref="I18:I25" si="6">CONCATENATE("[td]",C18,"[/td]")</f>
+        <v>[td]37[/td]</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18:J25" si="7">CONCATENATE("[td]",D18,"[/td]")</f>
+        <v>[td]13[/td]</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ref="K18:K25" si="8">CONCATENATE("[td]",E18,"[/td]")</f>
+        <v>[td]481[/td]</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ref="H19:H25" si="9">CONCATENATE("[td]",B19,"[/td]")</f>
+        <v>[td]Försvar[/td]</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]27[/td]</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]7[/td]</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]189[/td]</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Spelupplägg[/td]</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]3[/td]</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Ytter[/td]</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Framspel[/td]</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]2[/td]</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Målgörare[/td]</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]1[/td]</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]0[/td]</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>432</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Fasta sit[/td]</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v>[td]36[/td]</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="7"/>
+        <v>[td]12[/td]</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]432[/td]</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <v>1102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="9"/>
+        <v>[td]Summa[/td]</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
+        <v>[td][/td]</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="7"/>
+        <v>[td][/td]</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="8"/>
+        <v>[td]1102[/td]</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="G26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3744,7 +4471,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD42"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3885,10 +4612,10 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>31</v>
@@ -4545,13 +5272,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4568,15 +5295,15 @@
       </c>
       <c r="D34">
         <f>D33*VLOOKUP($A32, $A$2:$H$10,4,FALSE)</f>
-        <v>702</v>
+        <v>525</v>
       </c>
       <c r="E34">
         <f>E33*VLOOKUP($A32, $A$2:$H$10,5,FALSE)</f>
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="F34">
         <f>F33*VLOOKUP($A32, $A$2:$H$10,6,FALSE)</f>
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="G34">
         <f>G33*VLOOKUP($A32, $A$2:$H$10,7,FALSE)</f>
@@ -4588,7 +5315,7 @@
       </c>
       <c r="I34">
         <f>SUM(B34:H34)</f>
-        <v>1285</v>
+        <v>1182</v>
       </c>
       <c r="P34">
         <v>900</v>
@@ -4625,13 +5352,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>7</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4648,7 +5375,7 @@
       </c>
       <c r="D38">
         <f>D37*VLOOKUP($A36, $A$2:$H$10,4,FALSE)</f>
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="E38">
         <f>E37*VLOOKUP($A36, $A$2:$H$10,5,FALSE)</f>
@@ -4656,7 +5383,7 @@
       </c>
       <c r="F38">
         <f>F37*VLOOKUP($A36, $A$2:$H$10,6,FALSE)</f>
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="G38">
         <f>G37*VLOOKUP($A36, $A$2:$H$10,7,FALSE)</f>
@@ -4668,7 +5395,7 @@
       </c>
       <c r="I38">
         <f>SUM(B38:H38)</f>
-        <v>996</v>
+        <v>1178</v>
       </c>
       <c r="P38">
         <v>900</v>
@@ -4860,7 +5587,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5284,110 +6011,110 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>31</v>
-      </c>
       <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE("[th]",A19,"[/th]")</f>
-        <v>[th]IMUPK[/th]</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" ref="J19" si="26">CONCATENATE("[td]",B19,"[/td]")</f>
-        <v>[td]39[/td]</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" ref="K19" si="27">CONCATENATE("[td]",C19,"[/td]")</f>
-        <v>[td]15[/td]</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" ref="L19:M19" si="28">CONCATENATE("[td]",D19,"[/td]")</f>
-        <v>[td]15[/td]</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="28"/>
-        <v>[td]31[/td]</v>
-      </c>
-      <c r="N19" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="H20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="H21" t="s">
-        <v>2</v>
+      <c r="H21" t="str">
+        <f>CONCATENATE("[b]",A22,"[/b]")</f>
+        <v>[b]Yttermittfältare[/b]</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="H22" t="str">
-        <f>CONCATENATE("[b]",A23,"[/b]")</f>
-        <v>[b]Yttermittfältare[/b]</v>
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="I23" t="str">
+        <f>CONCATENATE("[th]",A23,"[/th]")</f>
+        <v>[th]Pos[/th]</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23" si="26">CONCATENATE("[th]",B23,"[/th]")</f>
+        <v>[th]YT[/th]</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ref="K23" si="27">CONCATENATE("[th]",C23,"[/th]")</f>
+        <v>[th]SU[/th]</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23" si="28">CONCATENATE("[th]",D23,"[/th]")</f>
+        <v>[th]FS[/th]</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23" si="29">CONCATENATE("[th]",E23,"[/th]")</f>
+        <v>[th]FÖ[/th]</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
       </c>
       <c r="I24" t="str">
         <f>CONCATENATE("[th]",A24,"[/th]")</f>
-        <v>[th]Pos[/th]</v>
+        <v>[th]YM[/th]</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24" si="29">CONCATENATE("[th]",B24,"[/th]")</f>
-        <v>[th]YT[/th]</v>
+        <f t="shared" ref="J24" si="30">CONCATENATE("[td]",B24,"[/td]")</f>
+        <v>[td]35[/td]</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24" si="30">CONCATENATE("[th]",C24,"[/th]")</f>
-        <v>[th]SU[/th]</v>
+        <f t="shared" ref="K24" si="31">CONCATENATE("[td]",C24,"[/td]")</f>
+        <v>[td]31[/td]</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ref="L24" si="31">CONCATENATE("[th]",D24,"[/th]")</f>
-        <v>[th]FS[/th]</v>
+        <f t="shared" ref="L24" si="32">CONCATENATE("[td]",D24,"[/td]")</f>
+        <v>[td]19[/td]</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ref="M24" si="32">CONCATENATE("[th]",E24,"[/th]")</f>
-        <v>[th]FÖ[/th]</v>
+        <f t="shared" ref="M24" si="33">CONCATENATE("[td]",E24,"[/td]")</f>
+        <v>[td]15[/td]</v>
       </c>
       <c r="N24" t="s">
         <v>9</v>
@@ -5395,13 +6122,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
         <v>35</v>
-      </c>
-      <c r="C25">
-        <v>31</v>
       </c>
       <c r="D25">
         <v>19</v>
@@ -5414,22 +6141,22 @@
       </c>
       <c r="I25" t="str">
         <f>CONCATENATE("[th]",A25,"[/th]")</f>
-        <v>[th]YM[/th]</v>
+        <v>[th]IMUPK[/th]</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25" si="33">CONCATENATE("[td]",B25,"[/td]")</f>
+        <f t="shared" ref="J25" si="34">CONCATENATE("[td]",B25,"[/td]")</f>
+        <v>[td]31[/td]</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25" si="35">CONCATENATE("[td]",C25,"[/td]")</f>
         <v>[td]35[/td]</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" ref="K25" si="34">CONCATENATE("[td]",C25,"[/td]")</f>
-        <v>[td]31[/td]</v>
-      </c>
       <c r="L25" t="str">
-        <f t="shared" ref="L25" si="35">CONCATENATE("[td]",D25,"[/td]")</f>
+        <f t="shared" ref="L25:M25" si="36">CONCATENATE("[td]",D25,"[/td]")</f>
         <v>[td]19[/td]</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ref="M25" si="36">CONCATENATE("[td]",E25,"[/td]")</f>
+        <f t="shared" si="36"/>
         <v>[td]15[/td]</v>
       </c>
       <c r="N25" t="s">
@@ -10612,19 +11339,19 @@
         <v>[th]FW[/th]</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32:J34" si="23">CONCATENATE("[td]",B32,"[/td]")</f>
+        <f t="shared" ref="J32:J33" si="23">CONCATENATE("[td]",B32,"[/td]")</f>
         <v>[td]38[/td]</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:K34" si="24">CONCATENATE("[td]",C32,"[/td]")</f>
+        <f t="shared" ref="K32:K33" si="24">CONCATENATE("[td]",C32,"[/td]")</f>
         <v>[td]29[/td]</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" ref="L32:L34" si="25">CONCATENATE("[td]",D32,"[/td]")</f>
+        <f t="shared" ref="L32:L33" si="25">CONCATENATE("[td]",D32,"[/td]")</f>
         <v>[td]33[/td]</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ref="M32:M34" si="26">CONCATENATE("[td]",E32,"[/td]")</f>
+        <f t="shared" ref="M32:M33" si="26">CONCATENATE("[td]",E32,"[/td]")</f>
         <v>[td]0[/td]</v>
       </c>
       <c r="N32" t="s">
@@ -10689,7 +11416,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
